--- a/jyx2/Assets/Mods/jhz/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/物品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\GitHub\github-jynew\jyx2\Assets\Mods\jhz\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89217D-229A-438A-88BD-D1E15F11201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE78615-75E5-4FE9-9569-9CAD4CE6AB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="4740" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="654">
   <si>
     <t>Id</t>
   </si>
@@ -1965,9 +1965,6 @@
     <t>皮衣</t>
   </si>
   <si>
-    <t>皮衣</t>
-  </si>
-  <si>
     <t>”兄弟”常穿服饰，因防御力强</t>
   </si>
   <si>
@@ -2001,6 +1998,119 @@
   </si>
   <si>
     <t>L_string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新的物品定义，我们的新物品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>由1000起</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>皮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>衣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红蓝丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御丹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升血量和内力的灵丹妙药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升攻击的灵丹妙药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升防御的灵丹妙药</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2008,7 +2118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2068,6 +2178,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2103,7 +2234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2119,6 +2250,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2469,24 +2603,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX204"/>
+  <dimension ref="A1:AX208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX4" sqref="AX4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
     <col min="50" max="50" width="28.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
@@ -2643,150 +2779,150 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>641</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>642</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AX3" s="4" t="s">
         <v>641</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
@@ -4590,7 +4726,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>131</v>
@@ -8040,7 +8176,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>183</v>
@@ -32499,18 +32635,18 @@
       </c>
       <c r="AX201" s="5"/>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:50" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <v>197</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="E202" s="2">
         <v>-1</v>
@@ -32654,13 +32790,13 @@
         <v>198</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E203" s="2">
         <v>-1</v>
@@ -32799,155 +32935,755 @@
       </c>
       <c r="AX203" s="5"/>
     </row>
-    <row r="204" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:50" ht="14.5" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
-        <v>199</v>
-      </c>
-      <c r="B204" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="E204" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F204" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G204" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H204" s="2">
+        <v>0</v>
+      </c>
+      <c r="I204" s="2">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2">
+        <v>0</v>
+      </c>
+      <c r="K204" s="2">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2">
+        <v>0</v>
+      </c>
+      <c r="M204" s="2">
+        <v>0</v>
+      </c>
+      <c r="N204" s="2">
+        <v>0</v>
+      </c>
+      <c r="O204" s="2">
+        <v>0</v>
+      </c>
+      <c r="P204" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="2">
+        <v>0</v>
+      </c>
+      <c r="R204" s="2">
+        <v>0</v>
+      </c>
+      <c r="S204" s="2">
+        <v>0</v>
+      </c>
+      <c r="T204" s="2">
+        <v>0</v>
+      </c>
+      <c r="U204" s="2">
+        <v>0</v>
+      </c>
+      <c r="V204" s="2">
+        <v>0</v>
+      </c>
+      <c r="W204" s="2">
+        <v>0</v>
+      </c>
+      <c r="X204" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y204" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU204" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW204" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX204" s="5"/>
+    </row>
+    <row r="205" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="E205" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F205" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G205" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0</v>
+      </c>
+      <c r="I205" s="2">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2">
+        <v>100</v>
+      </c>
+      <c r="K205" s="2">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2">
+        <v>0</v>
+      </c>
+      <c r="M205" s="2">
+        <v>0</v>
+      </c>
+      <c r="N205" s="2">
+        <v>0</v>
+      </c>
+      <c r="O205" s="2">
+        <v>100</v>
+      </c>
+      <c r="P205" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="2">
+        <v>0</v>
+      </c>
+      <c r="R205" s="2">
+        <v>0</v>
+      </c>
+      <c r="S205" s="2">
+        <v>0</v>
+      </c>
+      <c r="T205" s="2">
+        <v>0</v>
+      </c>
+      <c r="U205" s="2">
+        <v>0</v>
+      </c>
+      <c r="V205" s="2">
+        <v>0</v>
+      </c>
+      <c r="W205" s="2">
+        <v>0</v>
+      </c>
+      <c r="X205" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y205" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU205" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW205" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX205" s="5"/>
+    </row>
+    <row r="206" spans="1:50" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A206" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="E206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2">
+        <v>0</v>
+      </c>
+      <c r="K206" s="2">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2">
+        <v>0</v>
+      </c>
+      <c r="M206" s="2">
+        <v>0</v>
+      </c>
+      <c r="N206" s="2">
+        <v>0</v>
+      </c>
+      <c r="O206" s="2">
+        <v>0</v>
+      </c>
+      <c r="P206" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>0</v>
+      </c>
+      <c r="R206" s="2">
+        <v>0</v>
+      </c>
+      <c r="S206" s="2">
+        <v>0</v>
+      </c>
+      <c r="T206" s="2">
+        <v>0</v>
+      </c>
+      <c r="U206" s="2">
+        <v>0</v>
+      </c>
+      <c r="V206" s="2">
+        <v>0</v>
+      </c>
+      <c r="W206" s="2">
+        <v>0</v>
+      </c>
+      <c r="X206" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y206" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX206" s="5"/>
+    </row>
+    <row r="207" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="E207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H207" s="2">
+        <v>0</v>
+      </c>
+      <c r="I207" s="2">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2">
+        <v>0</v>
+      </c>
+      <c r="K207" s="2">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2">
+        <v>0</v>
+      </c>
+      <c r="M207" s="2">
+        <v>0</v>
+      </c>
+      <c r="N207" s="2">
+        <v>0</v>
+      </c>
+      <c r="O207" s="2">
+        <v>0</v>
+      </c>
+      <c r="P207" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="2">
+        <v>0</v>
+      </c>
+      <c r="R207" s="2">
+        <v>10</v>
+      </c>
+      <c r="S207" s="2">
+        <v>0</v>
+      </c>
+      <c r="T207" s="2">
+        <v>0</v>
+      </c>
+      <c r="U207" s="2">
+        <v>0</v>
+      </c>
+      <c r="V207" s="2">
+        <v>0</v>
+      </c>
+      <c r="W207" s="2">
+        <v>0</v>
+      </c>
+      <c r="X207" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y207" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW207" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX207" s="5"/>
+    </row>
+    <row r="208" spans="1:50" ht="14.5" x14ac:dyDescent="0.4">
+      <c r="A208" s="2">
+        <v>9999</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="E204" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F204" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G204" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H204" s="2">
-        <v>0</v>
-      </c>
-      <c r="I204" s="2">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2">
-        <v>0</v>
-      </c>
-      <c r="K204" s="2">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2">
-        <v>0</v>
-      </c>
-      <c r="M204" s="2">
-        <v>0</v>
-      </c>
-      <c r="N204" s="2">
-        <v>0</v>
-      </c>
-      <c r="O204" s="2">
-        <v>0</v>
-      </c>
-      <c r="P204" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q204" s="2">
-        <v>0</v>
-      </c>
-      <c r="R204" s="2">
-        <v>0</v>
-      </c>
-      <c r="S204" s="2">
-        <v>0</v>
-      </c>
-      <c r="T204" s="2">
-        <v>0</v>
-      </c>
-      <c r="U204" s="2">
-        <v>0</v>
-      </c>
-      <c r="V204" s="2">
-        <v>0</v>
-      </c>
-      <c r="W204" s="2">
-        <v>0</v>
-      </c>
-      <c r="X204" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y204" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU204" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AV204" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW204" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AX204" s="5"/>
+      <c r="D208" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2">
+        <v>0</v>
+      </c>
+      <c r="K208" s="2">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2">
+        <v>0</v>
+      </c>
+      <c r="M208" s="2">
+        <v>0</v>
+      </c>
+      <c r="N208" s="2">
+        <v>0</v>
+      </c>
+      <c r="O208" s="2">
+        <v>0</v>
+      </c>
+      <c r="P208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>0</v>
+      </c>
+      <c r="R208" s="2">
+        <v>0</v>
+      </c>
+      <c r="S208" s="2">
+        <v>0</v>
+      </c>
+      <c r="T208" s="2">
+        <v>0</v>
+      </c>
+      <c r="U208" s="2">
+        <v>0</v>
+      </c>
+      <c r="V208" s="2">
+        <v>0</v>
+      </c>
+      <c r="W208" s="2">
+        <v>0</v>
+      </c>
+      <c r="X208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX208" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/jyx2/Assets/Mods/jhz/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/物品.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\GitHub\github-jynew\jyx2\Assets\Mods\jhz\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE78615-75E5-4FE9-9569-9CAD4CE6AB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="19395" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -2117,7 +2111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2256,10 +2250,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -2602,22 +2596,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H207" sqref="H207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.36328125" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="50" max="50" width="28.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.19921875" customWidth="1"/>
+    <col min="50" max="50" width="28.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>639</v>
       </c>
@@ -2625,7 +2619,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -2777,7 +2771,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>640</v>
       </c>
@@ -2925,7 +2919,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3071,7 +3065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -3221,7 +3215,7 @@
       </c>
       <c r="AX5" s="5"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -3371,7 +3365,7 @@
       </c>
       <c r="AX6" s="5"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -3521,7 +3515,7 @@
       </c>
       <c r="AX7" s="5"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -3671,7 +3665,7 @@
       </c>
       <c r="AX8" s="5"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -3821,7 +3815,7 @@
       </c>
       <c r="AX9" s="5"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -3971,7 +3965,7 @@
       </c>
       <c r="AX10" s="5"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -4121,7 +4115,7 @@
       </c>
       <c r="AX11" s="5"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -4271,7 +4265,7 @@
       </c>
       <c r="AX12" s="5"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -4421,7 +4415,7 @@
       </c>
       <c r="AX13" s="5"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -4571,7 +4565,7 @@
       </c>
       <c r="AX14" s="5"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -4721,7 +4715,7 @@
       </c>
       <c r="AX15" s="5"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -4871,7 +4865,7 @@
       </c>
       <c r="AX16" s="5"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -5021,7 +5015,7 @@
       </c>
       <c r="AX17" s="5"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -5171,7 +5165,7 @@
       </c>
       <c r="AX18" s="5"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -5321,7 +5315,7 @@
       </c>
       <c r="AX19" s="5"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -5471,7 +5465,7 @@
       </c>
       <c r="AX20" s="5"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -5621,7 +5615,7 @@
       </c>
       <c r="AX21" s="5"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -5771,7 +5765,7 @@
       </c>
       <c r="AX22" s="5"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -5921,7 +5915,7 @@
       </c>
       <c r="AX23" s="5"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -6071,7 +6065,7 @@
       </c>
       <c r="AX24" s="5"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -6221,7 +6215,7 @@
       </c>
       <c r="AX25" s="5"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -6371,7 +6365,7 @@
       </c>
       <c r="AX26" s="5"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -6521,7 +6515,7 @@
       </c>
       <c r="AX27" s="5"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -6671,7 +6665,7 @@
       </c>
       <c r="AX28" s="5"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -6821,7 +6815,7 @@
       </c>
       <c r="AX29" s="5"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -6971,7 +6965,7 @@
       </c>
       <c r="AX30" s="5"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -7121,7 +7115,7 @@
       </c>
       <c r="AX31" s="5"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -7271,7 +7265,7 @@
       </c>
       <c r="AX32" s="5"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -7421,7 +7415,7 @@
       </c>
       <c r="AX33" s="5"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -7571,7 +7565,7 @@
       </c>
       <c r="AX34" s="5"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -7721,7 +7715,7 @@
       </c>
       <c r="AX35" s="5"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -7871,7 +7865,7 @@
       </c>
       <c r="AX36" s="5"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -8021,7 +8015,7 @@
       </c>
       <c r="AX37" s="5"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>33</v>
       </c>
@@ -8171,7 +8165,7 @@
       </c>
       <c r="AX38" s="5"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -8321,7 +8315,7 @@
       </c>
       <c r="AX39" s="5"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -8471,7 +8465,7 @@
       </c>
       <c r="AX40" s="5"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>36</v>
       </c>
@@ -8621,7 +8615,7 @@
       </c>
       <c r="AX41" s="5"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -8771,7 +8765,7 @@
       </c>
       <c r="AX42" s="5"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -8921,7 +8915,7 @@
       </c>
       <c r="AX43" s="5"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -9071,7 +9065,7 @@
       </c>
       <c r="AX44" s="5"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -9221,7 +9215,7 @@
       </c>
       <c r="AX45" s="5"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -9371,7 +9365,7 @@
       </c>
       <c r="AX46" s="5"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -9521,7 +9515,7 @@
       </c>
       <c r="AX47" s="5"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -9671,7 +9665,7 @@
       </c>
       <c r="AX48" s="5"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -9821,7 +9815,7 @@
       </c>
       <c r="AX49" s="5"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -9971,7 +9965,7 @@
       </c>
       <c r="AX50" s="5"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -10121,7 +10115,7 @@
       </c>
       <c r="AX51" s="5"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -10271,7 +10265,7 @@
       </c>
       <c r="AX52" s="5"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -10423,7 +10417,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -10575,7 +10569,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -10727,7 +10721,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -10879,7 +10873,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -11031,7 +11025,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -11183,7 +11177,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -11333,7 +11327,7 @@
       </c>
       <c r="AX59" s="5"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -11483,7 +11477,7 @@
       </c>
       <c r="AX60" s="5"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -11633,7 +11627,7 @@
       </c>
       <c r="AX61" s="5"/>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -11783,7 +11777,7 @@
       </c>
       <c r="AX62" s="5"/>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -11933,7 +11927,7 @@
       </c>
       <c r="AX63" s="5"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -12083,7 +12077,7 @@
       </c>
       <c r="AX64" s="5"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -12233,7 +12227,7 @@
       </c>
       <c r="AX65" s="5"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -12383,7 +12377,7 @@
       </c>
       <c r="AX66" s="5"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -12533,7 +12527,7 @@
       </c>
       <c r="AX67" s="5"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -12683,7 +12677,7 @@
       </c>
       <c r="AX68" s="5"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>64</v>
       </c>
@@ -12833,7 +12827,7 @@
       </c>
       <c r="AX69" s="5"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>65</v>
       </c>
@@ -12983,7 +12977,7 @@
       </c>
       <c r="AX70" s="5"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>66</v>
       </c>
@@ -13133,7 +13127,7 @@
       </c>
       <c r="AX71" s="5"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>67</v>
       </c>
@@ -13283,7 +13277,7 @@
       </c>
       <c r="AX72" s="5"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>68</v>
       </c>
@@ -13433,7 +13427,7 @@
       </c>
       <c r="AX73" s="5"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>69</v>
       </c>
@@ -13583,7 +13577,7 @@
       </c>
       <c r="AX74" s="5"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>70</v>
       </c>
@@ -13733,7 +13727,7 @@
       </c>
       <c r="AX75" s="5"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -13883,7 +13877,7 @@
       </c>
       <c r="AX76" s="5"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -14033,7 +14027,7 @@
       </c>
       <c r="AX77" s="5"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -14183,7 +14177,7 @@
       </c>
       <c r="AX78" s="5"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -14333,7 +14327,7 @@
       </c>
       <c r="AX79" s="5"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -14483,7 +14477,7 @@
       </c>
       <c r="AX80" s="5"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>76</v>
       </c>
@@ -14633,7 +14627,7 @@
       </c>
       <c r="AX81" s="5"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>77</v>
       </c>
@@ -14783,7 +14777,7 @@
       </c>
       <c r="AX82" s="5"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>78</v>
       </c>
@@ -14933,7 +14927,7 @@
       </c>
       <c r="AX83" s="5"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>79</v>
       </c>
@@ -15083,7 +15077,7 @@
       </c>
       <c r="AX84" s="5"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>80</v>
       </c>
@@ -15233,7 +15227,7 @@
       </c>
       <c r="AX85" s="5"/>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>81</v>
       </c>
@@ -15383,7 +15377,7 @@
       </c>
       <c r="AX86" s="5"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>82</v>
       </c>
@@ -15533,7 +15527,7 @@
       </c>
       <c r="AX87" s="5"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>83</v>
       </c>
@@ -15683,7 +15677,7 @@
       </c>
       <c r="AX88" s="5"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>84</v>
       </c>
@@ -15833,7 +15827,7 @@
       </c>
       <c r="AX89" s="5"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>85</v>
       </c>
@@ -15983,7 +15977,7 @@
       </c>
       <c r="AX90" s="5"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>86</v>
       </c>
@@ -16133,7 +16127,7 @@
       </c>
       <c r="AX91" s="5"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>87</v>
       </c>
@@ -16283,7 +16277,7 @@
       </c>
       <c r="AX92" s="5"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>88</v>
       </c>
@@ -16433,7 +16427,7 @@
       </c>
       <c r="AX93" s="5"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>89</v>
       </c>
@@ -16585,7 +16579,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>90</v>
       </c>
@@ -16735,7 +16729,7 @@
       </c>
       <c r="AX95" s="5"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>91</v>
       </c>
@@ -16885,7 +16879,7 @@
       </c>
       <c r="AX96" s="5"/>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>92</v>
       </c>
@@ -17035,7 +17029,7 @@
       </c>
       <c r="AX97" s="5"/>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>93</v>
       </c>
@@ -17185,7 +17179,7 @@
       </c>
       <c r="AX98" s="5"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>94</v>
       </c>
@@ -17335,7 +17329,7 @@
       </c>
       <c r="AX99" s="5"/>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>95</v>
       </c>
@@ -17485,7 +17479,7 @@
       </c>
       <c r="AX100" s="5"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>96</v>
       </c>
@@ -17635,7 +17629,7 @@
       </c>
       <c r="AX101" s="5"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>97</v>
       </c>
@@ -17785,7 +17779,7 @@
       </c>
       <c r="AX102" s="5"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>98</v>
       </c>
@@ -17935,7 +17929,7 @@
       </c>
       <c r="AX103" s="5"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>99</v>
       </c>
@@ -18085,7 +18079,7 @@
       </c>
       <c r="AX104" s="5"/>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>100</v>
       </c>
@@ -18235,7 +18229,7 @@
       </c>
       <c r="AX105" s="5"/>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>101</v>
       </c>
@@ -18385,7 +18379,7 @@
       </c>
       <c r="AX106" s="5"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>102</v>
       </c>
@@ -18535,7 +18529,7 @@
       </c>
       <c r="AX107" s="5"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>103</v>
       </c>
@@ -18685,7 +18679,7 @@
       </c>
       <c r="AX108" s="5"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>104</v>
       </c>
@@ -18835,7 +18829,7 @@
       </c>
       <c r="AX109" s="5"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>105</v>
       </c>
@@ -18985,7 +18979,7 @@
       </c>
       <c r="AX110" s="5"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>106</v>
       </c>
@@ -19135,7 +19129,7 @@
       </c>
       <c r="AX111" s="5"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>107</v>
       </c>
@@ -19285,7 +19279,7 @@
       </c>
       <c r="AX112" s="5"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>108</v>
       </c>
@@ -19435,7 +19429,7 @@
       </c>
       <c r="AX113" s="5"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>109</v>
       </c>
@@ -19585,7 +19579,7 @@
       </c>
       <c r="AX114" s="5"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>110</v>
       </c>
@@ -19735,7 +19729,7 @@
       </c>
       <c r="AX115" s="5"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>111</v>
       </c>
@@ -19885,7 +19879,7 @@
       </c>
       <c r="AX116" s="5"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>112</v>
       </c>
@@ -20035,7 +20029,7 @@
       </c>
       <c r="AX117" s="5"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>113</v>
       </c>
@@ -20185,7 +20179,7 @@
       </c>
       <c r="AX118" s="5"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>114</v>
       </c>
@@ -20335,7 +20329,7 @@
       </c>
       <c r="AX119" s="5"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>115</v>
       </c>
@@ -20485,7 +20479,7 @@
       </c>
       <c r="AX120" s="5"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>116</v>
       </c>
@@ -20635,7 +20629,7 @@
       </c>
       <c r="AX121" s="5"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>117</v>
       </c>
@@ -20785,7 +20779,7 @@
       </c>
       <c r="AX122" s="5"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>118</v>
       </c>
@@ -20935,7 +20929,7 @@
       </c>
       <c r="AX123" s="5"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>119</v>
       </c>
@@ -21085,7 +21079,7 @@
       </c>
       <c r="AX124" s="5"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>120</v>
       </c>
@@ -21235,7 +21229,7 @@
       </c>
       <c r="AX125" s="5"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>121</v>
       </c>
@@ -21385,7 +21379,7 @@
       </c>
       <c r="AX126" s="5"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>122</v>
       </c>
@@ -21535,7 +21529,7 @@
       </c>
       <c r="AX127" s="5"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>123</v>
       </c>
@@ -21685,7 +21679,7 @@
       </c>
       <c r="AX128" s="5"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>124</v>
       </c>
@@ -21835,7 +21829,7 @@
       </c>
       <c r="AX129" s="5"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>125</v>
       </c>
@@ -21985,7 +21979,7 @@
       </c>
       <c r="AX130" s="5"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>126</v>
       </c>
@@ -22135,7 +22129,7 @@
       </c>
       <c r="AX131" s="5"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>127</v>
       </c>
@@ -22285,7 +22279,7 @@
       </c>
       <c r="AX132" s="5"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>128</v>
       </c>
@@ -22435,7 +22429,7 @@
       </c>
       <c r="AX133" s="5"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>129</v>
       </c>
@@ -22585,7 +22579,7 @@
       </c>
       <c r="AX134" s="5"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>130</v>
       </c>
@@ -22735,7 +22729,7 @@
       </c>
       <c r="AX135" s="5"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>131</v>
       </c>
@@ -22885,7 +22879,7 @@
       </c>
       <c r="AX136" s="5"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>132</v>
       </c>
@@ -23035,7 +23029,7 @@
       </c>
       <c r="AX137" s="5"/>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>133</v>
       </c>
@@ -23185,7 +23179,7 @@
       </c>
       <c r="AX138" s="5"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>134</v>
       </c>
@@ -23335,7 +23329,7 @@
       </c>
       <c r="AX139" s="5"/>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>135</v>
       </c>
@@ -23485,7 +23479,7 @@
       </c>
       <c r="AX140" s="5"/>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>136</v>
       </c>
@@ -23635,7 +23629,7 @@
       </c>
       <c r="AX141" s="5"/>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>137</v>
       </c>
@@ -23785,7 +23779,7 @@
       </c>
       <c r="AX142" s="5"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>138</v>
       </c>
@@ -23935,7 +23929,7 @@
       </c>
       <c r="AX143" s="5"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>139</v>
       </c>
@@ -24085,7 +24079,7 @@
       </c>
       <c r="AX144" s="5"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>140</v>
       </c>
@@ -24235,7 +24229,7 @@
       </c>
       <c r="AX145" s="5"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>141</v>
       </c>
@@ -24385,7 +24379,7 @@
       </c>
       <c r="AX146" s="5"/>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>142</v>
       </c>
@@ -24535,7 +24529,7 @@
       </c>
       <c r="AX147" s="5"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>143</v>
       </c>
@@ -24685,7 +24679,7 @@
       </c>
       <c r="AX148" s="5"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>144</v>
       </c>
@@ -24835,7 +24829,7 @@
       </c>
       <c r="AX149" s="5"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>145</v>
       </c>
@@ -24985,7 +24979,7 @@
       </c>
       <c r="AX150" s="5"/>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>146</v>
       </c>
@@ -25135,7 +25129,7 @@
       </c>
       <c r="AX151" s="5"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>147</v>
       </c>
@@ -25285,7 +25279,7 @@
       </c>
       <c r="AX152" s="5"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>148</v>
       </c>
@@ -25435,7 +25429,7 @@
       </c>
       <c r="AX153" s="5"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>149</v>
       </c>
@@ -25585,7 +25579,7 @@
       </c>
       <c r="AX154" s="5"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>150</v>
       </c>
@@ -25735,7 +25729,7 @@
       </c>
       <c r="AX155" s="5"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>151</v>
       </c>
@@ -25885,7 +25879,7 @@
       </c>
       <c r="AX156" s="5"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>152</v>
       </c>
@@ -26035,7 +26029,7 @@
       </c>
       <c r="AX157" s="5"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>153</v>
       </c>
@@ -26185,7 +26179,7 @@
       </c>
       <c r="AX158" s="5"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>154</v>
       </c>
@@ -26335,7 +26329,7 @@
       </c>
       <c r="AX159" s="5"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>155</v>
       </c>
@@ -26485,7 +26479,7 @@
       </c>
       <c r="AX160" s="5"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>156</v>
       </c>
@@ -26635,7 +26629,7 @@
       </c>
       <c r="AX161" s="5"/>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>157</v>
       </c>
@@ -26785,7 +26779,7 @@
       </c>
       <c r="AX162" s="5"/>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>158</v>
       </c>
@@ -26935,7 +26929,7 @@
       </c>
       <c r="AX163" s="5"/>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>159</v>
       </c>
@@ -27085,7 +27079,7 @@
       </c>
       <c r="AX164" s="5"/>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>160</v>
       </c>
@@ -27235,7 +27229,7 @@
       </c>
       <c r="AX165" s="5"/>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>161</v>
       </c>
@@ -27385,7 +27379,7 @@
       </c>
       <c r="AX166" s="5"/>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>162</v>
       </c>
@@ -27535,7 +27529,7 @@
       </c>
       <c r="AX167" s="5"/>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>163</v>
       </c>
@@ -27685,7 +27679,7 @@
       </c>
       <c r="AX168" s="5"/>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>164</v>
       </c>
@@ -27835,7 +27829,7 @@
       </c>
       <c r="AX169" s="5"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>165</v>
       </c>
@@ -27985,7 +27979,7 @@
       </c>
       <c r="AX170" s="5"/>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>166</v>
       </c>
@@ -28135,7 +28129,7 @@
       </c>
       <c r="AX171" s="5"/>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>167</v>
       </c>
@@ -28285,7 +28279,7 @@
       </c>
       <c r="AX172" s="5"/>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>168</v>
       </c>
@@ -28435,7 +28429,7 @@
       </c>
       <c r="AX173" s="5"/>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>169</v>
       </c>
@@ -28585,7 +28579,7 @@
       </c>
       <c r="AX174" s="5"/>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>170</v>
       </c>
@@ -28735,7 +28729,7 @@
       </c>
       <c r="AX175" s="5"/>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>171</v>
       </c>
@@ -28885,7 +28879,7 @@
       </c>
       <c r="AX176" s="5"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>172</v>
       </c>
@@ -29035,7 +29029,7 @@
       </c>
       <c r="AX177" s="5"/>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>173</v>
       </c>
@@ -29185,7 +29179,7 @@
       </c>
       <c r="AX178" s="5"/>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>174</v>
       </c>
@@ -29335,7 +29329,7 @@
       </c>
       <c r="AX179" s="5"/>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>175</v>
       </c>
@@ -29485,7 +29479,7 @@
       </c>
       <c r="AX180" s="5"/>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>176</v>
       </c>
@@ -29635,7 +29629,7 @@
       </c>
       <c r="AX181" s="5"/>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>177</v>
       </c>
@@ -29785,7 +29779,7 @@
       </c>
       <c r="AX182" s="5"/>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>178</v>
       </c>
@@ -29935,7 +29929,7 @@
       </c>
       <c r="AX183" s="5"/>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>179</v>
       </c>
@@ -30085,7 +30079,7 @@
       </c>
       <c r="AX184" s="5"/>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>180</v>
       </c>
@@ -30235,7 +30229,7 @@
       </c>
       <c r="AX185" s="5"/>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>181</v>
       </c>
@@ -30385,7 +30379,7 @@
       </c>
       <c r="AX186" s="5"/>
     </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>182</v>
       </c>
@@ -30535,7 +30529,7 @@
       </c>
       <c r="AX187" s="5"/>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>183</v>
       </c>
@@ -30685,7 +30679,7 @@
       </c>
       <c r="AX188" s="5"/>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>184</v>
       </c>
@@ -30835,7 +30829,7 @@
       </c>
       <c r="AX189" s="5"/>
     </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>185</v>
       </c>
@@ -30985,7 +30979,7 @@
       </c>
       <c r="AX190" s="5"/>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>186</v>
       </c>
@@ -31135,7 +31129,7 @@
       </c>
       <c r="AX191" s="5"/>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>187</v>
       </c>
@@ -31285,7 +31279,7 @@
       </c>
       <c r="AX192" s="5"/>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>188</v>
       </c>
@@ -31435,7 +31429,7 @@
       </c>
       <c r="AX193" s="5"/>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>189</v>
       </c>
@@ -31585,7 +31579,7 @@
       </c>
       <c r="AX194" s="5"/>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>190</v>
       </c>
@@ -31735,7 +31729,7 @@
       </c>
       <c r="AX195" s="5"/>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>191</v>
       </c>
@@ -31885,7 +31879,7 @@
       </c>
       <c r="AX196" s="5"/>
     </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>192</v>
       </c>
@@ -32035,7 +32029,7 @@
       </c>
       <c r="AX197" s="5"/>
     </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>193</v>
       </c>
@@ -32185,7 +32179,7 @@
       </c>
       <c r="AX198" s="5"/>
     </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>194</v>
       </c>
@@ -32335,7 +32329,7 @@
       </c>
       <c r="AX199" s="5"/>
     </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>195</v>
       </c>
@@ -32485,7 +32479,7 @@
       </c>
       <c r="AX200" s="5"/>
     </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>196</v>
       </c>
@@ -32635,7 +32629,7 @@
       </c>
       <c r="AX201" s="5"/>
     </row>
-    <row r="202" spans="1:50" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:50" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A202" s="2">
         <v>197</v>
       </c>
@@ -32785,7 +32779,7 @@
       </c>
       <c r="AX202" s="5"/>
     </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>198</v>
       </c>
@@ -32935,7 +32929,7 @@
       </c>
       <c r="AX203" s="5"/>
     </row>
-    <row r="204" spans="1:50" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:50" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A204" s="2">
         <v>1000</v>
       </c>
@@ -33085,7 +33079,7 @@
       </c>
       <c r="AX204" s="5"/>
     </row>
-    <row r="205" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>1001</v>
       </c>
@@ -33108,7 +33102,7 @@
         <v>-1</v>
       </c>
       <c r="H205" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I205" s="2">
         <v>0</v>
@@ -33235,7 +33229,7 @@
       </c>
       <c r="AX205" s="5"/>
     </row>
-    <row r="206" spans="1:50" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:50" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A206" s="2">
         <v>1002</v>
       </c>
@@ -33258,7 +33252,7 @@
         <v>-1</v>
       </c>
       <c r="H206" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I206" s="2">
         <v>0</v>
@@ -33385,7 +33379,7 @@
       </c>
       <c r="AX206" s="5"/>
     </row>
-    <row r="207" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>1003</v>
       </c>
@@ -33408,7 +33402,7 @@
         <v>-1</v>
       </c>
       <c r="H207" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I207" s="2">
         <v>0</v>
@@ -33535,7 +33529,7 @@
       </c>
       <c r="AX207" s="5"/>
     </row>
-    <row r="208" spans="1:50" ht="14.5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:50" ht="13.9" x14ac:dyDescent="0.45">
       <c r="A208" s="2">
         <v>9999</v>
       </c>

--- a/jyx2/Assets/Mods/jhz/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/物品.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="656">
   <si>
     <t>Id</t>
   </si>
@@ -2105,6 +2105,14 @@
   </si>
   <si>
     <t>提升防御的灵丹妙药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵书</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升武学常识的道具</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2597,11 +2605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX208"/>
+  <dimension ref="A1:AX209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H207" sqref="H207"/>
+      <selection pane="bottomLeft" activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -33529,155 +33537,305 @@
       </c>
       <c r="AX207" s="5"/>
     </row>
-    <row r="208" spans="1:50" ht="13.9" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="E208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H208" s="2">
+        <v>3</v>
+      </c>
+      <c r="I208" s="2">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2">
+        <v>0</v>
+      </c>
+      <c r="K208" s="2">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2">
+        <v>0</v>
+      </c>
+      <c r="M208" s="2">
+        <v>0</v>
+      </c>
+      <c r="N208" s="2">
+        <v>0</v>
+      </c>
+      <c r="O208" s="2">
+        <v>0</v>
+      </c>
+      <c r="P208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>0</v>
+      </c>
+      <c r="R208" s="2">
+        <v>0</v>
+      </c>
+      <c r="S208" s="2">
+        <v>0</v>
+      </c>
+      <c r="T208" s="2">
+        <v>0</v>
+      </c>
+      <c r="U208" s="2">
+        <v>0</v>
+      </c>
+      <c r="V208" s="2">
+        <v>0</v>
+      </c>
+      <c r="W208" s="2">
+        <v>0</v>
+      </c>
+      <c r="X208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB208" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW208" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX208" s="5"/>
+    </row>
+    <row r="209" spans="1:50" ht="13.9" x14ac:dyDescent="0.45">
+      <c r="A209" s="2">
         <v>9999</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B209" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D209" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E208" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F208" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G208" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H208" s="2">
-        <v>0</v>
-      </c>
-      <c r="I208" s="2">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2">
-        <v>0</v>
-      </c>
-      <c r="K208" s="2">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2">
-        <v>0</v>
-      </c>
-      <c r="M208" s="2">
-        <v>0</v>
-      </c>
-      <c r="N208" s="2">
-        <v>0</v>
-      </c>
-      <c r="O208" s="2">
-        <v>0</v>
-      </c>
-      <c r="P208" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q208" s="2">
-        <v>0</v>
-      </c>
-      <c r="R208" s="2">
-        <v>0</v>
-      </c>
-      <c r="S208" s="2">
-        <v>0</v>
-      </c>
-      <c r="T208" s="2">
-        <v>0</v>
-      </c>
-      <c r="U208" s="2">
-        <v>0</v>
-      </c>
-      <c r="V208" s="2">
-        <v>0</v>
-      </c>
-      <c r="W208" s="2">
-        <v>0</v>
-      </c>
-      <c r="X208" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y208" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU208" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AV208" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW208" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AX208" s="5"/>
+      <c r="E209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0</v>
+      </c>
+      <c r="I209" s="2">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2">
+        <v>0</v>
+      </c>
+      <c r="K209" s="2">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2">
+        <v>0</v>
+      </c>
+      <c r="M209" s="2">
+        <v>0</v>
+      </c>
+      <c r="N209" s="2">
+        <v>0</v>
+      </c>
+      <c r="O209" s="2">
+        <v>0</v>
+      </c>
+      <c r="P209" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q209" s="2">
+        <v>0</v>
+      </c>
+      <c r="R209" s="2">
+        <v>0</v>
+      </c>
+      <c r="S209" s="2">
+        <v>0</v>
+      </c>
+      <c r="T209" s="2">
+        <v>0</v>
+      </c>
+      <c r="U209" s="2">
+        <v>0</v>
+      </c>
+      <c r="V209" s="2">
+        <v>0</v>
+      </c>
+      <c r="W209" s="2">
+        <v>0</v>
+      </c>
+      <c r="X209" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX209" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/jyx2/Assets/Mods/jhz/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/物品.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="658">
   <si>
     <t>Id</t>
   </si>
@@ -2113,6 +2113,14 @@
   </si>
   <si>
     <t>提升武学常识的道具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>令牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启小二奖励兑换的神秘道具</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2605,11 +2613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX209"/>
+  <dimension ref="A1:AX210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E217" sqref="E217"/>
+      <pane ySplit="4" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -33687,155 +33695,305 @@
       </c>
       <c r="AX208" s="5"/>
     </row>
-    <row r="209" spans="1:50" ht="13.9" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="C209" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="D209" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="E209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0</v>
+      </c>
+      <c r="I209" s="2">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2">
+        <v>0</v>
+      </c>
+      <c r="K209" s="2">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2">
+        <v>0</v>
+      </c>
+      <c r="M209" s="2">
+        <v>0</v>
+      </c>
+      <c r="N209" s="2">
+        <v>0</v>
+      </c>
+      <c r="O209" s="2">
+        <v>0</v>
+      </c>
+      <c r="P209" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q209" s="2">
+        <v>0</v>
+      </c>
+      <c r="R209" s="2">
+        <v>0</v>
+      </c>
+      <c r="S209" s="2">
+        <v>0</v>
+      </c>
+      <c r="T209" s="2">
+        <v>0</v>
+      </c>
+      <c r="U209" s="2">
+        <v>0</v>
+      </c>
+      <c r="V209" s="2">
+        <v>0</v>
+      </c>
+      <c r="W209" s="2">
+        <v>0</v>
+      </c>
+      <c r="X209" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW209" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX209" s="5"/>
+    </row>
+    <row r="210" spans="1:50" ht="13.9" x14ac:dyDescent="0.45">
+      <c r="A210" s="2">
         <v>9999</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B210" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E209" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F209" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G209" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H209" s="2">
-        <v>0</v>
-      </c>
-      <c r="I209" s="2">
-        <v>0</v>
-      </c>
-      <c r="J209" s="2">
-        <v>0</v>
-      </c>
-      <c r="K209" s="2">
-        <v>0</v>
-      </c>
-      <c r="L209" s="2">
-        <v>0</v>
-      </c>
-      <c r="M209" s="2">
-        <v>0</v>
-      </c>
-      <c r="N209" s="2">
-        <v>0</v>
-      </c>
-      <c r="O209" s="2">
-        <v>0</v>
-      </c>
-      <c r="P209" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q209" s="2">
-        <v>0</v>
-      </c>
-      <c r="R209" s="2">
-        <v>0</v>
-      </c>
-      <c r="S209" s="2">
-        <v>0</v>
-      </c>
-      <c r="T209" s="2">
-        <v>0</v>
-      </c>
-      <c r="U209" s="2">
-        <v>0</v>
-      </c>
-      <c r="V209" s="2">
-        <v>0</v>
-      </c>
-      <c r="W209" s="2">
-        <v>0</v>
-      </c>
-      <c r="X209" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y209" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU209" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AV209" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW209" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AX209" s="5"/>
+      <c r="E210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H210" s="2">
+        <v>0</v>
+      </c>
+      <c r="I210" s="2">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2">
+        <v>0</v>
+      </c>
+      <c r="K210" s="2">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2">
+        <v>0</v>
+      </c>
+      <c r="M210" s="2">
+        <v>0</v>
+      </c>
+      <c r="N210" s="2">
+        <v>0</v>
+      </c>
+      <c r="O210" s="2">
+        <v>0</v>
+      </c>
+      <c r="P210" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="2">
+        <v>0</v>
+      </c>
+      <c r="R210" s="2">
+        <v>0</v>
+      </c>
+      <c r="S210" s="2">
+        <v>0</v>
+      </c>
+      <c r="T210" s="2">
+        <v>0</v>
+      </c>
+      <c r="U210" s="2">
+        <v>0</v>
+      </c>
+      <c r="V210" s="2">
+        <v>0</v>
+      </c>
+      <c r="W210" s="2">
+        <v>0</v>
+      </c>
+      <c r="X210" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX210" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/jyx2/Assets/Mods/jhz/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/物品.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="670">
   <si>
     <t>Id</t>
   </si>
@@ -2121,6 +2121,54 @@
   </si>
   <si>
     <t>开启小二奖励兑换的神秘道具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础拳谱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础剑谱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础刀谱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础特殊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳谱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑谱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀谱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以提升拳法的秘籍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以提升剑法的秘籍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以提升刀法的秘籍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以提升特殊的秘籍</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2613,11 +2661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX210"/>
+  <dimension ref="A1:AX214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT221" sqref="AT221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11207,7 +11255,7 @@
         <v>261</v>
       </c>
       <c r="E59" s="2">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="F59" s="2">
         <v>-1</v>
@@ -11357,7 +11405,7 @@
         <v>264</v>
       </c>
       <c r="E60" s="2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F60" s="2">
         <v>-1</v>
@@ -11507,7 +11555,7 @@
         <v>266</v>
       </c>
       <c r="E61" s="2">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="F61" s="2">
         <v>-1</v>
@@ -11657,7 +11705,7 @@
         <v>269</v>
       </c>
       <c r="E62" s="2">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="F62" s="2">
         <v>-1</v>
@@ -11807,7 +11855,7 @@
         <v>272</v>
       </c>
       <c r="E63" s="2">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="F63" s="2">
         <v>-1</v>
@@ -11957,7 +12005,7 @@
         <v>275</v>
       </c>
       <c r="E64" s="2">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="F64" s="2">
         <v>-1</v>
@@ -12107,7 +12155,7 @@
         <v>278</v>
       </c>
       <c r="E65" s="2">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="F65" s="2">
         <v>-1</v>
@@ -12257,7 +12305,7 @@
         <v>281</v>
       </c>
       <c r="E66" s="2">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="F66" s="2">
         <v>-1</v>
@@ -12407,7 +12455,7 @@
         <v>284</v>
       </c>
       <c r="E67" s="2">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="F67" s="2">
         <v>-1</v>
@@ -12557,7 +12605,7 @@
         <v>287</v>
       </c>
       <c r="E68" s="2">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="F68" s="2">
         <v>-1</v>
@@ -12707,7 +12755,7 @@
         <v>290</v>
       </c>
       <c r="E69" s="2">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="F69" s="2">
         <v>-1</v>
@@ -12857,7 +12905,7 @@
         <v>293</v>
       </c>
       <c r="E70" s="2">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="F70" s="2">
         <v>-1</v>
@@ -13007,7 +13055,7 @@
         <v>296</v>
       </c>
       <c r="E71" s="2">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="F71" s="2">
         <v>-1</v>
@@ -13157,7 +13205,7 @@
         <v>299</v>
       </c>
       <c r="E72" s="2">
-        <v>89</v>
+        <v>-1</v>
       </c>
       <c r="F72" s="2">
         <v>-1</v>
@@ -13307,7 +13355,7 @@
         <v>302</v>
       </c>
       <c r="E73" s="2">
-        <v>45</v>
+        <v>-1</v>
       </c>
       <c r="F73" s="2">
         <v>-1</v>
@@ -13457,7 +13505,7 @@
         <v>304</v>
       </c>
       <c r="E74" s="2">
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="F74" s="2">
         <v>-1</v>
@@ -13607,7 +13655,7 @@
         <v>306</v>
       </c>
       <c r="E75" s="2">
-        <v>53</v>
+        <v>-1</v>
       </c>
       <c r="F75" s="2">
         <v>-1</v>
@@ -13757,7 +13805,7 @@
         <v>309</v>
       </c>
       <c r="E76" s="2">
-        <v>47</v>
+        <v>-1</v>
       </c>
       <c r="F76" s="2">
         <v>-1</v>
@@ -13907,7 +13955,7 @@
         <v>312</v>
       </c>
       <c r="E77" s="2">
-        <v>54</v>
+        <v>-1</v>
       </c>
       <c r="F77" s="2">
         <v>-1</v>
@@ -14057,7 +14105,7 @@
         <v>315</v>
       </c>
       <c r="E78" s="2">
-        <v>49</v>
+        <v>-1</v>
       </c>
       <c r="F78" s="2">
         <v>-1</v>
@@ -14207,7 +14255,7 @@
         <v>318</v>
       </c>
       <c r="E79" s="2">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="F79" s="2">
         <v>-1</v>
@@ -14357,7 +14405,7 @@
         <v>321</v>
       </c>
       <c r="E80" s="2">
-        <v>58</v>
+        <v>-1</v>
       </c>
       <c r="F80" s="2">
         <v>-1</v>
@@ -14507,7 +14555,7 @@
         <v>324</v>
       </c>
       <c r="E81" s="2">
-        <v>59</v>
+        <v>-1</v>
       </c>
       <c r="F81" s="2">
         <v>-1</v>
@@ -14657,7 +14705,7 @@
         <v>327</v>
       </c>
       <c r="E82" s="2">
-        <v>57</v>
+        <v>-1</v>
       </c>
       <c r="F82" s="2">
         <v>-1</v>
@@ -14807,7 +14855,7 @@
         <v>330</v>
       </c>
       <c r="E83" s="2">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="F83" s="2">
         <v>-1</v>
@@ -14957,7 +15005,7 @@
         <v>333</v>
       </c>
       <c r="E84" s="2">
-        <v>61</v>
+        <v>-1</v>
       </c>
       <c r="F84" s="2">
         <v>-1</v>
@@ -15107,7 +15155,7 @@
         <v>336</v>
       </c>
       <c r="E85" s="2">
-        <v>63</v>
+        <v>-1</v>
       </c>
       <c r="F85" s="2">
         <v>-1</v>
@@ -15257,7 +15305,7 @@
         <v>339</v>
       </c>
       <c r="E86" s="2">
-        <v>66</v>
+        <v>-1</v>
       </c>
       <c r="F86" s="2">
         <v>-1</v>
@@ -15407,7 +15455,7 @@
         <v>342</v>
       </c>
       <c r="E87" s="2">
-        <v>65</v>
+        <v>-1</v>
       </c>
       <c r="F87" s="2">
         <v>-1</v>
@@ -15557,7 +15605,7 @@
         <v>345</v>
       </c>
       <c r="E88" s="2">
-        <v>64</v>
+        <v>-1</v>
       </c>
       <c r="F88" s="2">
         <v>-1</v>
@@ -15707,7 +15755,7 @@
         <v>347</v>
       </c>
       <c r="E89" s="2">
-        <v>67</v>
+        <v>-1</v>
       </c>
       <c r="F89" s="2">
         <v>-1</v>
@@ -15857,7 +15905,7 @@
         <v>350</v>
       </c>
       <c r="E90" s="2">
-        <v>68</v>
+        <v>-1</v>
       </c>
       <c r="F90" s="2">
         <v>-1</v>
@@ -16007,7 +16055,7 @@
         <v>352</v>
       </c>
       <c r="E91" s="2">
-        <v>77</v>
+        <v>-1</v>
       </c>
       <c r="F91" s="2">
         <v>-1</v>
@@ -16157,7 +16205,7 @@
         <v>355</v>
       </c>
       <c r="E92" s="2">
-        <v>78</v>
+        <v>-1</v>
       </c>
       <c r="F92" s="2">
         <v>-1</v>
@@ -17359,7 +17407,7 @@
         <v>375</v>
       </c>
       <c r="E100" s="2">
-        <v>92</v>
+        <v>-1</v>
       </c>
       <c r="F100" s="2">
         <v>-1</v>
@@ -33845,155 +33893,755 @@
       </c>
       <c r="AX209" s="5"/>
     </row>
-    <row r="210" spans="1:50" ht="13.9" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="E210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H210" s="2">
+        <v>2</v>
+      </c>
+      <c r="I210" s="2">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2">
+        <v>0</v>
+      </c>
+      <c r="K210" s="2">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2">
+        <v>0</v>
+      </c>
+      <c r="M210" s="2">
+        <v>0</v>
+      </c>
+      <c r="N210" s="2">
+        <v>0</v>
+      </c>
+      <c r="O210" s="2">
+        <v>0</v>
+      </c>
+      <c r="P210" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="2">
+        <v>0</v>
+      </c>
+      <c r="R210" s="2">
+        <v>0</v>
+      </c>
+      <c r="S210" s="2">
+        <v>0</v>
+      </c>
+      <c r="T210" s="2">
+        <v>0</v>
+      </c>
+      <c r="U210" s="2">
+        <v>0</v>
+      </c>
+      <c r="V210" s="2">
+        <v>0</v>
+      </c>
+      <c r="W210" s="2">
+        <v>10</v>
+      </c>
+      <c r="X210" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT210" s="2">
+        <v>300</v>
+      </c>
+      <c r="AU210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW210" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX210" s="5"/>
+    </row>
+    <row r="211" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A211" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="E211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H211" s="2">
+        <v>2</v>
+      </c>
+      <c r="I211" s="2">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2">
+        <v>0</v>
+      </c>
+      <c r="K211" s="2">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2">
+        <v>0</v>
+      </c>
+      <c r="M211" s="2">
+        <v>0</v>
+      </c>
+      <c r="N211" s="2">
+        <v>0</v>
+      </c>
+      <c r="O211" s="2">
+        <v>0</v>
+      </c>
+      <c r="P211" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="2">
+        <v>0</v>
+      </c>
+      <c r="R211" s="2">
+        <v>0</v>
+      </c>
+      <c r="S211" s="2">
+        <v>0</v>
+      </c>
+      <c r="T211" s="2">
+        <v>0</v>
+      </c>
+      <c r="U211" s="2">
+        <v>0</v>
+      </c>
+      <c r="V211" s="2">
+        <v>0</v>
+      </c>
+      <c r="W211" s="2">
+        <v>0</v>
+      </c>
+      <c r="X211" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y211" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT211" s="2">
+        <v>300</v>
+      </c>
+      <c r="AU211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW211" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX211" s="5"/>
+    </row>
+    <row r="212" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A212" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="E212" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F212" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G212" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H212" s="2">
+        <v>2</v>
+      </c>
+      <c r="I212" s="2">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2">
+        <v>0</v>
+      </c>
+      <c r="K212" s="2">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2">
+        <v>0</v>
+      </c>
+      <c r="M212" s="2">
+        <v>0</v>
+      </c>
+      <c r="N212" s="2">
+        <v>0</v>
+      </c>
+      <c r="O212" s="2">
+        <v>0</v>
+      </c>
+      <c r="P212" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q212" s="2">
+        <v>0</v>
+      </c>
+      <c r="R212" s="2">
+        <v>0</v>
+      </c>
+      <c r="S212" s="2">
+        <v>0</v>
+      </c>
+      <c r="T212" s="2">
+        <v>0</v>
+      </c>
+      <c r="U212" s="2">
+        <v>0</v>
+      </c>
+      <c r="V212" s="2">
+        <v>0</v>
+      </c>
+      <c r="W212" s="2">
+        <v>0</v>
+      </c>
+      <c r="X212" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y212" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT212" s="2">
+        <v>300</v>
+      </c>
+      <c r="AU212" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW212" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX212" s="5"/>
+    </row>
+    <row r="213" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A213" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="E213" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F213" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G213" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H213" s="2">
+        <v>2</v>
+      </c>
+      <c r="I213" s="2">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2">
+        <v>0</v>
+      </c>
+      <c r="K213" s="2">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2">
+        <v>0</v>
+      </c>
+      <c r="M213" s="2">
+        <v>0</v>
+      </c>
+      <c r="N213" s="2">
+        <v>0</v>
+      </c>
+      <c r="O213" s="2">
+        <v>0</v>
+      </c>
+      <c r="P213" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q213" s="2">
+        <v>0</v>
+      </c>
+      <c r="R213" s="2">
+        <v>0</v>
+      </c>
+      <c r="S213" s="2">
+        <v>0</v>
+      </c>
+      <c r="T213" s="2">
+        <v>0</v>
+      </c>
+      <c r="U213" s="2">
+        <v>0</v>
+      </c>
+      <c r="V213" s="2">
+        <v>0</v>
+      </c>
+      <c r="W213" s="2">
+        <v>0</v>
+      </c>
+      <c r="X213" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z213" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT213" s="2">
+        <v>300</v>
+      </c>
+      <c r="AU213" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW213" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX213" s="5"/>
+    </row>
+    <row r="214" spans="1:50" ht="13.9" x14ac:dyDescent="0.45">
+      <c r="A214" s="2">
         <v>9999</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B214" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D214" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E210" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F210" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G210" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H210" s="2">
-        <v>0</v>
-      </c>
-      <c r="I210" s="2">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2">
-        <v>0</v>
-      </c>
-      <c r="K210" s="2">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2">
-        <v>0</v>
-      </c>
-      <c r="M210" s="2">
-        <v>0</v>
-      </c>
-      <c r="N210" s="2">
-        <v>0</v>
-      </c>
-      <c r="O210" s="2">
-        <v>0</v>
-      </c>
-      <c r="P210" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q210" s="2">
-        <v>0</v>
-      </c>
-      <c r="R210" s="2">
-        <v>0</v>
-      </c>
-      <c r="S210" s="2">
-        <v>0</v>
-      </c>
-      <c r="T210" s="2">
-        <v>0</v>
-      </c>
-      <c r="U210" s="2">
-        <v>0</v>
-      </c>
-      <c r="V210" s="2">
-        <v>0</v>
-      </c>
-      <c r="W210" s="2">
-        <v>0</v>
-      </c>
-      <c r="X210" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y210" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU210" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AV210" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW210" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AX210" s="5"/>
+      <c r="E214" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F214" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G214" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H214" s="2">
+        <v>0</v>
+      </c>
+      <c r="I214" s="2">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2">
+        <v>0</v>
+      </c>
+      <c r="K214" s="2">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2">
+        <v>0</v>
+      </c>
+      <c r="M214" s="2">
+        <v>0</v>
+      </c>
+      <c r="N214" s="2">
+        <v>0</v>
+      </c>
+      <c r="O214" s="2">
+        <v>0</v>
+      </c>
+      <c r="P214" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q214" s="2">
+        <v>0</v>
+      </c>
+      <c r="R214" s="2">
+        <v>0</v>
+      </c>
+      <c r="S214" s="2">
+        <v>0</v>
+      </c>
+      <c r="T214" s="2">
+        <v>0</v>
+      </c>
+      <c r="U214" s="2">
+        <v>0</v>
+      </c>
+      <c r="V214" s="2">
+        <v>0</v>
+      </c>
+      <c r="W214" s="2">
+        <v>0</v>
+      </c>
+      <c r="X214" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y214" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU214" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AV214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW214" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AX214" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
